--- a/Curso Ingenieria del Software 2/Estudiantes.xlsx
+++ b/Curso Ingenieria del Software 2/Estudiantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B231987-FF68-4242-A861-7DFEAAB43098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED449E9-4919-4DF8-B02E-43EDB9929C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>2024-03</t>
   </si>
@@ -246,21 +257,12 @@
     <t>https://github.com/JacoboAlfaro/IngenieriaSoftware2</t>
   </si>
   <si>
-    <t>OBSERVACION</t>
-  </si>
-  <si>
-    <t>No se encontro archivos en el repositorio</t>
-  </si>
-  <si>
     <t>https://github.com/JeroGaviiria/IngenieriaDeSoftware2</t>
   </si>
   <si>
     <t>https://github.com/ReyXerxezz/Ingenier-a-de-Software-2</t>
   </si>
   <si>
-    <t>https://github.com/juanmash-19/Taller_1_SW_2.git</t>
-  </si>
-  <si>
     <t>https://github.com/Danielesp19/Software2/tree/main</t>
   </si>
   <si>
@@ -306,7 +308,25 @@
     <t>https://github.com/Samuel05L28/Ingenieria-de-software-2.git</t>
   </si>
   <si>
-    <t>https://github.com/RonaldUAM/IngenieriaDesoftwareII.git</t>
+    <t>https://github.com/SDuque28/Software2.git</t>
+  </si>
+  <si>
+    <t>TALLER 2</t>
+  </si>
+  <si>
+    <t>TALLER 3</t>
+  </si>
+  <si>
+    <t>https://github.com/LuisEduardo002/IngenieraSoftware2.git</t>
+  </si>
+  <si>
+    <t>https://github.com/RonaldUAM/Ingenieria_de_Software_II.git</t>
+  </si>
+  <si>
+    <t>https://github.com/juanmash-19/Talleres_INSW_2.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Marco-Sanint/IngenieriaDeSoftware2</t>
   </si>
 </sst>
 </file>
@@ -410,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,6 +450,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -711,10 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +749,10 @@
     <col min="7" max="7" width="47.5703125" customWidth="1"/>
     <col min="8" max="8" width="40.85546875" customWidth="1"/>
     <col min="9" max="9" width="65.140625" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -762,10 +784,13 @@
         <v>66</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -796,9 +821,14 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -824,14 +854,19 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -856,13 +891,16 @@
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="J4" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -893,9 +931,14 @@
       <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -921,47 +964,59 @@
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1054544978</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10302300074</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1004012527</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10202150099</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1020</v>
@@ -970,97 +1025,106 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1073599941</v>
+        <v>1004012527</v>
       </c>
       <c r="E8" s="2">
-        <v>10202250162</v>
+        <v>10202150099</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1020</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>1054398749</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10202250154</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
       <c r="B10" s="2">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>1118287601</v>
+        <v>1054861662</v>
       </c>
       <c r="E10" s="2">
-        <v>10202200141</v>
+        <v>10302400061</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>1020</v>
@@ -1069,31 +1133,36 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>1007227411</v>
+        <v>1073599941</v>
       </c>
       <c r="E11" s="2">
-        <v>10202400293</v>
+        <v>10202250162</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>1020</v>
@@ -1102,126 +1171,144 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1083864443</v>
+        <v>1054398749</v>
       </c>
       <c r="E12" s="2">
-        <v>10202250161</v>
+        <v>10202250154</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1002609206</v>
+        <v>1054860717</v>
       </c>
       <c r="E13" s="2">
-        <v>10202200145</v>
+        <v>10302400072</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1055751174</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10302400060</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1111332299</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10202250159</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1020</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>1055753352</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10202400282</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1030</v>
@@ -1230,235 +1317,252 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>1054544978</v>
+        <v>1054398870</v>
       </c>
       <c r="E16" s="2">
-        <v>10302300074</v>
+        <v>10302400076</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1054861662</v>
+        <v>1118287601</v>
       </c>
       <c r="E17" s="2">
-        <v>10302400061</v>
+        <v>10202200141</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1054860717</v>
+        <v>1007227411</v>
       </c>
       <c r="E18" s="2">
-        <v>10302400072</v>
+        <v>10202400293</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J18" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1030</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
-        <v>1055751174</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10302400060</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>1054398870</v>
+        <v>1083864443</v>
       </c>
       <c r="E20" s="2">
-        <v>10302400076</v>
+        <v>10202250161</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1002609206</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10202200145</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1030</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1054860227</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10302400069</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1030</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1007235072</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10302450089</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1030</v>
@@ -1467,81 +1571,110 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>1054861562</v>
+        <v>1054860227</v>
       </c>
       <c r="E23" s="2">
-        <v>10302400058</v>
+        <v>10302400069</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J23" s="7">
         <v>1</v>
       </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1030</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>1007235072</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10302450089</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="J24" s="7">
         <v>1</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1020</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="2">
+        <v>1111332299</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10202250159</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1555,101 +1688,147 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1020</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="2">
+        <v>1055753352</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10202400282</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1030</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="2">
+        <v>1054861562</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10302400058</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="SANINT HERNANDEZ MARCO"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
+      <sortCondition descending="1" ref="G1:G28"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1" xr:uid="{34F33AC1-E04A-48B6-831E-5A7D29099796}"/>
-    <hyperlink ref="I17" r:id="rId2" xr:uid="{2A29E44A-530C-408C-B228-5A6CB2C0E124}"/>
-    <hyperlink ref="I16" r:id="rId3" xr:uid="{6EC8FF8B-7B8B-45B8-90CC-DD97E32F59F7}"/>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{34F33AC1-E04A-48B6-831E-5A7D29099796}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{2A29E44A-530C-408C-B228-5A6CB2C0E124}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{6EC8FF8B-7B8B-45B8-90CC-DD97E32F59F7}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{4C8F7158-3C6E-4B9D-B27B-E62AD8360096}"/>
-    <hyperlink ref="I22" r:id="rId5" xr:uid="{AA084CF2-689F-410C-A217-72944790227D}"/>
+    <hyperlink ref="I24" r:id="rId5" xr:uid="{AA084CF2-689F-410C-A217-72944790227D}"/>
     <hyperlink ref="I5" r:id="rId6" xr:uid="{C8E6CBE1-C434-4DD2-805B-5CBF79F60851}"/>
     <hyperlink ref="I2" r:id="rId7" xr:uid="{49C63780-5EF0-4E40-B6D1-6325F614DB4E}"/>
-    <hyperlink ref="I15" r:id="rId8" xr:uid="{9A353B8F-39DB-456F-90B7-8DD7F6071640}"/>
-    <hyperlink ref="I18" r:id="rId9" xr:uid="{6FEF2781-AF53-4E0B-850B-E826392C7085}"/>
-    <hyperlink ref="I19" r:id="rId10" xr:uid="{27AA11F5-AA44-4D01-AB26-7BA36A0947DD}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{87C1137A-2717-4C69-9B8C-A1AE7A72D669}"/>
-    <hyperlink ref="I11" r:id="rId12" xr:uid="{F0CBE98D-D6D5-4F41-857B-43EF3058BBAD}"/>
-    <hyperlink ref="I21" r:id="rId13" xr:uid="{C7397EE4-23E6-4BE6-9682-4729EB242AFC}"/>
-    <hyperlink ref="I7" r:id="rId14" xr:uid="{7DC9EFB1-AFE7-4244-9CEA-46BE1D597D30}"/>
-    <hyperlink ref="H24" r:id="rId15" xr:uid="{4CCAE1AF-49D2-4767-BC33-559413C17EAD}"/>
-    <hyperlink ref="I24" r:id="rId16" xr:uid="{924710C9-8090-494A-9A76-3A13D207197A}"/>
-    <hyperlink ref="I23" r:id="rId17" xr:uid="{F303EE93-C10F-493F-A2D4-331C4B40BB6A}"/>
-    <hyperlink ref="I8" r:id="rId18" xr:uid="{A0F459AC-2C41-4147-9653-1564B23D3C5D}"/>
+    <hyperlink ref="I27" r:id="rId8" xr:uid="{9A353B8F-39DB-456F-90B7-8DD7F6071640}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{6FEF2781-AF53-4E0B-850B-E826392C7085}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{27AA11F5-AA44-4D01-AB26-7BA36A0947DD}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{87C1137A-2717-4C69-9B8C-A1AE7A72D669}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{F0CBE98D-D6D5-4F41-857B-43EF3058BBAD}"/>
+    <hyperlink ref="I23" r:id="rId13" xr:uid="{C7397EE4-23E6-4BE6-9682-4729EB242AFC}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{7DC9EFB1-AFE7-4244-9CEA-46BE1D597D30}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{4CCAE1AF-49D2-4767-BC33-559413C17EAD}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{924710C9-8090-494A-9A76-3A13D207197A}"/>
+    <hyperlink ref="I28" r:id="rId17" xr:uid="{F303EE93-C10F-493F-A2D4-331C4B40BB6A}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{A0F459AC-2C41-4147-9653-1564B23D3C5D}"/>
     <hyperlink ref="I3" r:id="rId19" xr:uid="{C6C745FF-2A19-4087-A1BC-233C3B32F07A}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{9426F525-E5AD-459F-8797-38A18118FBD5}"/>
-    <hyperlink ref="I14" r:id="rId21" xr:uid="{D9021715-D000-48F5-9DC5-EFB4C6E7DA57}"/>
+    <hyperlink ref="I20" r:id="rId20" xr:uid="{9426F525-E5AD-459F-8797-38A18118FBD5}"/>
+    <hyperlink ref="I25" r:id="rId21" xr:uid="{D9021715-D000-48F5-9DC5-EFB4C6E7DA57}"/>
     <hyperlink ref="I6" r:id="rId22" xr:uid="{F1EC3C2C-90D8-4009-B554-D6404A52B9A6}"/>
-    <hyperlink ref="H25" r:id="rId23" xr:uid="{EECC9613-9F7F-406D-A14E-5A636848ECC7}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{9B54ADA4-6D54-4F9D-83F5-47127D451B12}"/>
-    <hyperlink ref="I26" r:id="rId25" xr:uid="{5282BF97-26BB-41B4-9C77-5FCC31A50574}"/>
-    <hyperlink ref="H26" r:id="rId26" xr:uid="{5E1D0864-7B49-4D5A-8DFD-8934ACC0D538}"/>
-    <hyperlink ref="I27" r:id="rId27" xr:uid="{AB5907AE-5360-4204-BD8C-1BF8CDFC81F7}"/>
-    <hyperlink ref="H27" r:id="rId28" xr:uid="{A2A083A8-7504-4B07-97A2-ED0AB9073165}"/>
-    <hyperlink ref="H28" r:id="rId29" xr:uid="{4DE8A3BE-A6E5-48CE-B02F-A31939CCF613}"/>
-    <hyperlink ref="I28" r:id="rId30" xr:uid="{306A8AB5-DE15-40B8-899D-81756CDC6501}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{EECC9613-9F7F-406D-A14E-5A636848ECC7}"/>
+    <hyperlink ref="I19" r:id="rId24" xr:uid="{9B54ADA4-6D54-4F9D-83F5-47127D451B12}"/>
+    <hyperlink ref="I15" r:id="rId25" xr:uid="{5282BF97-26BB-41B4-9C77-5FCC31A50574}"/>
+    <hyperlink ref="H15" r:id="rId26" xr:uid="{5E1D0864-7B49-4D5A-8DFD-8934ACC0D538}"/>
+    <hyperlink ref="I26" r:id="rId27" xr:uid="{AB5907AE-5360-4204-BD8C-1BF8CDFC81F7}"/>
+    <hyperlink ref="H26" r:id="rId28" xr:uid="{A2A083A8-7504-4B07-97A2-ED0AB9073165}"/>
+    <hyperlink ref="H21" r:id="rId29" xr:uid="{4DE8A3BE-A6E5-48CE-B02F-A31939CCF613}"/>
+    <hyperlink ref="I21" r:id="rId30" xr:uid="{306A8AB5-DE15-40B8-899D-81756CDC6501}"/>
+    <hyperlink ref="I4" r:id="rId31" xr:uid="{EDBAF559-D26A-4285-AEF1-8C98BB152EEA}"/>
+    <hyperlink ref="I22" r:id="rId32" xr:uid="{8B71CB7E-3930-4AB3-9B7C-D536875C9F4B}"/>
+    <hyperlink ref="I17" r:id="rId33" xr:uid="{65DFD9BC-3428-4819-AD7E-86A4F5CA7EB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>